--- a/TODO/PriceChart.xlsx
+++ b/TODO/PriceChart.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Fee</t>
   </si>
@@ -59,6 +59,21 @@
   </si>
   <si>
     <t>&gt; $500,000</t>
+  </si>
+  <si>
+    <t>&lt; $600,000</t>
+  </si>
+  <si>
+    <t>&lt; $1,000,000</t>
+  </si>
+  <si>
+    <t>&lt; $2,000,000</t>
+  </si>
+  <si>
+    <t>&lt; $4,000,000</t>
+  </si>
+  <si>
+    <t>&lt; $20,000,000</t>
   </si>
 </sst>
 </file>
@@ -168,11 +183,11 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -504,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E12"/>
+  <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:C9"/>
@@ -517,10 +532,13 @@
     <col min="3" max="3" width="26.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="3"/>
     <col min="5" max="5" width="31.7109375" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="13.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,86 +548,152 @@
       <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9">
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
         <v>2.2000000000000001E-3</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9">
+      <c r="G3" s="10">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+      <c r="G4" s="10">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
         <v>2E-3</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+      <c r="G5" s="10">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
         <v>1.9E-3</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+      <c r="G6" s="10">
+        <v>2E-3</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
         <v>1.8E-3</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9">
+      <c r="G7" s="10">
+        <v>1.5E-3</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
+      <c r="G8" s="10">
+        <v>1.4E-3</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="10">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="10">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="10">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
+      <c r="G12" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
